--- a/BiSS.Projects.RPGen/Data/TEMPLATE.XLSX
+++ b/BiSS.Projects.RPGen/Data/TEMPLATE.XLSX
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="引导表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>1. 使用引导</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -329,14 +329,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>班名次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>级名次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -377,23 +369,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVERAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前两行非数据区域,请不要修改!                       CONST MAX NUM=&gt;1000000</t>
+    <t>总班名次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总级名次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语文班名次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语文级名次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学班名次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学级名次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语班名次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语级名次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理班名次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理级名次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化学班名次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化学级名次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治班名次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治级名次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史班名次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史级名次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地理班名次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地理级名次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物班名次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物级名次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +514,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,14 +557,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -535,49 +581,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="7" fillId="7" borderId="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -585,125 +594,28 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="typical" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -981,75 +893,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+      <c r="A1" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+    <row r="2" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:6" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+    <row r="12" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:6" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1089,8 +1001,8 @@
       <c r="E16" s="4"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1122,8 +1034,8 @@
       <c r="E19" s="4"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1350,25 +1262,25 @@
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="40" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="6" t="s">
+    <row r="40" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="11" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B41" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D41" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="6" t="s">
         <v>65</v>
       </c>
       <c r="F41" s="2" t="b">
@@ -1376,19 +1288,19 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B42" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="6" t="s">
         <v>62</v>
       </c>
       <c r="D42" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="6" t="s">
         <v>66</v>
       </c>
       <c r="F42" s="2" t="b">
@@ -1396,13 +1308,13 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B43" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D43" s="2" t="b">
@@ -1410,27 +1322,32 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B44" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="6" t="s">
         <v>64</v>
       </c>
       <c r="D44" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="1:1" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
-        <v>77</v>
+    <row r="54" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="A4:XFD4"/>
+    <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="A40:XFD40"/>
     <mergeCell ref="A54:XFD54"/>
     <mergeCell ref="A56:XFD56"/>
@@ -1438,11 +1355,6 @@
     <mergeCell ref="A14:XFD14"/>
     <mergeCell ref="A17:XFD17"/>
     <mergeCell ref="A20:XFD20"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A2:XFD2"/>
-    <mergeCell ref="A3:XFD3"/>
-    <mergeCell ref="A4:XFD4"/>
-    <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="A13:XFD13"/>
     <mergeCell ref="A7:XFD7"/>
     <mergeCell ref="A8:XFD8"/>
@@ -1459,179 +1371,120 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="22" customWidth="1"/>
-    <col min="2" max="16384" width="13.625" style="22"/>
+    <col min="1" max="1" width="13.625" style="9" customWidth="1"/>
+    <col min="2" max="16384" width="13.625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="17"/>
-    </row>
-    <row r="2" spans="1:32" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="19">
-        <f>COUNTIF(A4:A1000000,"&lt;&gt;")</f>
-        <v>1</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="19" t="e">
-        <f>AVERAGE(A2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="20" t="s">
+      <c r="M1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="L3" s="20" t="s">
+      <c r="O1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="M3" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="O3" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="P3" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q3" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="R3" s="20" t="s">
+      <c r="R1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="S3" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="T3" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="U3" s="20" t="s">
+      <c r="U1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="W3" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="X3" s="20" t="s">
+      <c r="AA1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="Y3" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z3" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA3" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB3" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC3" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD3" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE3" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF3" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A4" s="23" t="s">
-        <v>85</v>
-      </c>
+      <c r="AD1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A2" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:XFD1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>